--- a/fisier_excel.xlsx
+++ b/fisier_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate-Ana\Seminar-DSAD\Proiect_Titeche_Anamaria_1091\DataIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553640D2-A42A-4E4A-9780-998D8B4D14EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D53EB-9CD3-4A7B-AEF5-D472AF01D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="875" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="54">
   <si>
     <t>Belgium</t>
   </si>
@@ -200,12 +200,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>Special value</t>
-  </si>
-  <si>
-    <t>not available</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
 </sst>
@@ -287,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -322,9 +316,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -654,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -769,49 +760,49 @@
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>707615</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>687596</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>196346</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>184975</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>228219</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>163988</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>145035</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>148915</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>147022</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>146929</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>143921</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>142093</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>137800</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>136410</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>134685</v>
       </c>
     </row>
@@ -869,55 +860,55 @@
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>546894</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>546926</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>538963</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>528488</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>531102</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>499167</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>494191</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>504231</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>473290</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>491511</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>486174</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>474419</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>432704</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>425093</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>445271</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="13">
         <v>6750613</v>
@@ -969,49 +960,49 @@
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>37163</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>35739</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>39570</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>35411</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>40972</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>45721</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>51539</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>57799</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>58497</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>53293</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>53595</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>53048</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>52916</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>51834</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>50375</v>
       </c>
     </row>
@@ -1061,7 +1052,7 @@
       <c r="O8" s="13">
         <v>103178</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="13">
         <v>2119126</v>
       </c>
     </row>
@@ -1069,49 +1060,49 @@
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>358503</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>303311</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>329110</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>349476</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>377749</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>385681</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>373680</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>369137</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>439629</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>441138</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>441839</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>405627</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>455952</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>463750</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>423422</v>
       </c>
     </row>
@@ -1169,49 +1160,49 @@
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>3881894</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>3919008</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>3665320</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>3559617</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>3493442</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>3565525</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>3567864</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>3771849</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>4061792</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>4113882</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>3974694</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>3825442</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>3775838</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>3725588</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>3589293</v>
       </c>
     </row>
@@ -1219,49 +1210,49 @@
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>77280</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>64051</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>63015</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>58364</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>55085</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>56015</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>58190</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>68378</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>78351</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>77905</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>80377</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>85416</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>79946</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>81049</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>75857</v>
       </c>
     </row>
@@ -1319,49 +1310,49 @@
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>4300</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>4304</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>4033</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>4529</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>3910</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>4316</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>4212</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>4340</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>4506</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>4758</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>7256</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>7615</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>7212</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <v>7917</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="13">
         <v>7556</v>
       </c>
     </row>
@@ -1419,49 +1410,49 @@
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>60378</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>58364</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>60819</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>68053</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>75816</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>78149</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>77108</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>82370</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>79265</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>72646</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>79072</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>84136</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>82074</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>75474</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="13">
         <v>67990</v>
       </c>
     </row>
@@ -1519,49 +1510,49 @@
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>400935</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>389451</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>502036</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>466050</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>514403</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>600621</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>505716</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>450673</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>465694</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>420782</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <v>413343</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>418833</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>436522</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>425941</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="13">
         <v>426914</v>
       </c>
     </row>
@@ -1619,49 +1610,49 @@
       <c r="A20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>1272500</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1313600</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1226700</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>1186512</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>1219935</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>1234900</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>1303446</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>1328909</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>1379454</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>1401871</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>1369271</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>1319482</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>1348285</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>1311770</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>1303835</v>
       </c>
     </row>
@@ -1719,49 +1710,49 @@
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>852507</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>906157</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>974941</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>897751</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>992373</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>1073042</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>1121545</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>1266910</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>1390089</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>1404229</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>1466643</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>1461217</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>1379962</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>1287918</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>1152993</v>
       </c>
     </row>
@@ -1819,49 +1810,49 @@
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>219487</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>237004</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>297046</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>321651</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>361061</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>399105</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>363690</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>353745</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>340414</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>312204</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <v>276841</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <v>231637</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="13">
         <v>208239</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <v>232659</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="13">
         <v>281457</v>
       </c>
     </row>
@@ -1919,49 +1910,49 @@
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>146125</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>137713</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>114579</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>99402</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>92395</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>93895</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>94016</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>88817</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>93053</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>107373</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>111893</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <v>131244</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <v>123563</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="13">
         <v>115152</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="13">
         <v>110802</v>
       </c>
     </row>
@@ -2019,49 +2010,49 @@
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>1191251</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>1112505</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>1145945</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>1175339</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>1196065</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>1181056</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>1194171</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>1214968</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>1189393</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>1234784</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <v>1255371</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <v>1248743</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="13">
         <v>1241843</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <v>1224958</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>1306324</v>
       </c>
     </row>
@@ -2125,43 +2116,43 @@
       <c r="C30" s="13">
         <v>687596</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>780957</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>1002</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>869</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>858</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>795</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>898</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>1086</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <v>1002</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <v>1138</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="13">
         <v>1043</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="13">
         <v>1059</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="13">
         <v>1189</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="13">
         <v>1075</v>
       </c>
     </row>
@@ -2219,49 +2210,49 @@
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>371740</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>358028</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>346634</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>356018</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>382769</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>378045</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>355255</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>317335</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>321713</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>356841</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <v>379343</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>389415</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <v>352723</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="13">
         <v>335157</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
         <v>326232</v>
       </c>
     </row>
@@ -2319,49 +2310,49 @@
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>517247</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>500110</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>475697</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>451956</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>420642</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>431551</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>435703</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>423172</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>421093</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>427034</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <v>406979</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="13">
         <v>438121</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="13">
         <v>417785</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="13">
         <v>419257</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="13">
         <v>385509</v>
       </c>
     </row>
@@ -2419,49 +2410,49 @@
       <c r="A36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>707615</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>687596</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>780957</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>741329</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>732237</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>752467</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>1131724</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <v>1018712</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>8463</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <v>8934</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <v>8613</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="13">
         <v>8227</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="13">
         <v>9579</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="13">
         <v>9564</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="13">
         <v>9258</v>
       </c>
     </row>
@@ -2469,25 +2460,25 @@
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>707615</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>687596</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>780957</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>741329</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>732237</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>752467</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>1131724</v>
       </c>
       <c r="I37" s="13">
@@ -2519,49 +2510,49 @@
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>707615</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>687596</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>780957</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>741329</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>732237</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>752467</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>1131724</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>106020</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>121672</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <v>95638</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="13">
         <v>90419</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="13">
         <v>99866</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="13">
         <v>102093</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="13">
         <v>99244</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>104862</v>
       </c>
     </row>
@@ -2619,7 +2610,7 @@
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="15"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="47" spans="1:16" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -2642,8 +2633,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:J36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2708,25 +2699,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>647.8125</v>
+        <v>647</v>
       </c>
       <c r="C2" s="6">
-        <v>452.6</v>
+        <v>452</v>
       </c>
       <c r="D2" s="6">
-        <v>489.25</v>
+        <v>489</v>
       </c>
       <c r="E2" s="6">
-        <v>469.030303030303</v>
+        <v>469</v>
       </c>
       <c r="F2" s="6">
-        <v>442.45454545454498</v>
+        <v>442</v>
       </c>
       <c r="G2" s="6">
-        <v>411.58823529411802</v>
+        <v>411</v>
       </c>
       <c r="H2" s="6">
-        <v>393.82352941176498</v>
+        <v>393</v>
       </c>
       <c r="I2" s="6">
         <v>216</v>
@@ -2909,7 +2900,7 @@
     </row>
     <row r="6" spans="1:18" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6">
         <v>1250</v>
@@ -4463,10 +4454,10 @@
         <v>394</v>
       </c>
       <c r="I36" s="7">
-        <v>428.18918918918916</v>
+        <v>428</v>
       </c>
       <c r="J36" s="7">
-        <v>392.83783783783781</v>
+        <v>392</v>
       </c>
       <c r="K36" s="7">
         <v>27</v>
@@ -4643,15 +4634,11 @@
     </row>
     <row r="47" spans="1:18" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4928,7 +4915,7 @@
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6">
         <v>160680</v>
@@ -6117,13 +6104,13 @@
         <v>70717</v>
       </c>
       <c r="N29" s="6">
-        <v>72671.135135135133</v>
+        <v>72671</v>
       </c>
       <c r="O29" s="6">
-        <v>73879.216216216213</v>
+        <v>73879</v>
       </c>
       <c r="P29" s="6">
-        <v>71112.513513513521</v>
+        <v>71112</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -6647,7 +6634,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6908,7 +6895,7 @@
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6">
         <v>11057</v>
@@ -8626,8 +8613,8 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8691,25 +8678,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C2" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D2" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E2" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F2" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G2" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H2" s="6">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I2" s="6">
         <v>83315</v>
@@ -8741,10 +8728,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C3" s="7">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D3" s="7">
         <v>80671</v>
@@ -8888,7 +8875,7 @@
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6">
         <v>227090</v>
@@ -9091,10 +9078,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C10" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D10" s="6">
         <v>76610</v>
@@ -9191,25 +9178,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C12" s="7">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D12" s="7">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E12" s="7">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F12" s="7">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G12" s="7">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H12" s="7">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I12" s="7">
         <v>2957</v>
@@ -9341,22 +9328,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C15" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D15" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E15" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F15" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G15" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H15" s="6">
         <v>4706</v>
@@ -9541,22 +9528,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C19" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D19" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E19" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F19" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G19" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H19" s="6">
         <v>675</v>
@@ -9641,7 +9628,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C21" s="6">
         <v>14160</v>
@@ -9691,7 +9678,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C22" s="7">
         <v>57120</v>
@@ -9841,7 +9828,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C25" s="6">
         <v>1383</v>
@@ -9850,13 +9837,13 @@
         <v>1361</v>
       </c>
       <c r="E25" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F25" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G25" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H25" s="6">
         <v>988</v>
@@ -10041,25 +10028,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C29" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D29" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E29" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F29" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G29" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H29" s="6">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I29" s="6">
         <v>2407</v>
@@ -10091,10 +10078,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="7">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C30" s="7">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D30" s="7">
         <v>142</v>
@@ -10241,10 +10228,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="6">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C33" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D33" s="6">
         <v>643645</v>
@@ -10291,7 +10278,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="7">
-        <v>52178.571428571428</v>
+        <v>52178</v>
       </c>
       <c r="C34" s="7">
         <v>53116</v>
@@ -10391,75 +10378,75 @@
         <v>33</v>
       </c>
       <c r="B36" s="7">
-        <v>52178.571428571428</v>
+        <v>52179</v>
       </c>
       <c r="C36" s="7">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D36" s="7">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E36" s="7">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F36" s="7">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G36" s="7">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H36" s="7">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I36" s="7">
-        <v>45848.054054054053</v>
+        <v>45848</v>
       </c>
       <c r="J36" s="7">
-        <v>46207.405405405407</v>
+        <v>46207</v>
       </c>
       <c r="K36" s="7">
-        <v>46167.62162162162</v>
+        <v>46167</v>
       </c>
       <c r="L36" s="7">
-        <v>44306.054054054053</v>
+        <v>44306</v>
       </c>
       <c r="M36" s="7">
-        <v>39900.16216216216</v>
+        <v>39900</v>
       </c>
       <c r="N36" s="7">
-        <v>38514.7027027027</v>
+        <v>38514</v>
       </c>
       <c r="O36" s="7">
-        <v>39104.486486486487</v>
+        <v>39104</v>
       </c>
       <c r="P36" s="7">
-        <v>38400.594594594593</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="6">
-        <v>52178.571428571428</v>
+      <c r="B37" s="7">
+        <v>52179</v>
       </c>
       <c r="C37" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D37" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E37" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F37" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G37" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H37" s="6">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I37" s="6">
         <v>981</v>
@@ -10491,25 +10478,25 @@
         <v>35</v>
       </c>
       <c r="B38" s="7">
-        <v>52178.571428571428</v>
+        <v>52179</v>
       </c>
       <c r="C38" s="7">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D38" s="7">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E38" s="7">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F38" s="7">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G38" s="7">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H38" s="7">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I38" s="7">
         <v>9685</v>
@@ -10540,26 +10527,26 @@
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="6">
-        <v>52178.571428571428</v>
+      <c r="B39" s="7">
+        <v>52179</v>
       </c>
       <c r="C39" s="6">
-        <v>48611.6</v>
+        <v>48611</v>
       </c>
       <c r="D39" s="6">
-        <v>70096.620689655174</v>
+        <v>70096</v>
       </c>
       <c r="E39" s="6">
-        <v>70769.392857142855</v>
+        <v>70769</v>
       </c>
       <c r="F39" s="6">
-        <v>67627.21428571429</v>
+        <v>67627</v>
       </c>
       <c r="G39" s="6">
-        <v>63708.678571428572</v>
+        <v>63708</v>
       </c>
       <c r="H39" s="6">
-        <v>54137.032258064515</v>
+        <v>54137</v>
       </c>
       <c r="I39" s="6">
         <v>20493</v>
@@ -10606,8 +10593,8 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10671,25 +10658,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C2" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D2" s="6">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E2" s="6">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F2" s="6">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G2" s="6">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H2" s="6">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I2" s="6">
         <v>54146</v>
@@ -10721,10 +10708,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C3" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D3" s="7">
         <v>2451</v>
@@ -10868,7 +10855,7 @@
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6">
         <v>276745</v>
@@ -11021,13 +11008,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C9" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D9" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E9" s="7">
         <v>5309</v>
@@ -11071,7 +11058,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C10" s="6">
         <v>99769</v>
@@ -11121,7 +11108,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C11" s="7">
         <v>484179</v>
@@ -11171,25 +11158,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C12" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D12" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E12" s="7">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F12" s="7">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G12" s="7">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H12" s="7">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I12" s="7">
         <v>2055</v>
@@ -11321,10 +11308,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C15" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D15" s="6">
         <v>2774</v>
@@ -11521,19 +11508,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C19" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D19" s="6">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E19" s="6">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F19" s="6">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G19" s="6">
         <v>1166</v>
@@ -11621,10 +11608,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C21" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D21" s="6">
         <v>6095</v>
@@ -11821,7 +11808,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C25" s="6">
         <v>1350</v>
@@ -12021,49 +12008,49 @@
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C29" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D29" s="6">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E29" s="6">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F29" s="6">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G29" s="6">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H29" s="6">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I29" s="6">
-        <v>50661.657142857141</v>
+        <v>50661</v>
       </c>
       <c r="J29" s="6">
-        <v>49898.114285714284</v>
+        <v>49898</v>
       </c>
       <c r="K29" s="6">
-        <v>46719.805555555555</v>
+        <v>46719</v>
       </c>
       <c r="L29" s="6">
-        <v>42531.805555555555</v>
+        <v>42531</v>
       </c>
       <c r="M29" s="6">
-        <v>40085.388888888891</v>
+        <v>40085</v>
       </c>
       <c r="N29" s="6">
-        <v>37553.083333333336</v>
+        <v>37553</v>
       </c>
       <c r="O29" s="6">
-        <v>35735.916666666664</v>
+        <v>35735</v>
       </c>
       <c r="P29" s="6">
-        <v>33571.083333333336</v>
+        <v>33571</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12071,16 +12058,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C30" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D30" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E30" s="7">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F30" s="7">
         <v>6</v>
@@ -12171,49 +12158,49 @@
         <v>29</v>
       </c>
       <c r="B32" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C32" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D32" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E32" s="7">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F32" s="7">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G32" s="7">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H32" s="7">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I32" s="7">
-        <v>50661.657142857141</v>
+        <v>50661</v>
       </c>
       <c r="J32" s="7">
-        <v>49898.114285714284</v>
+        <v>49898</v>
       </c>
       <c r="K32" s="7">
-        <v>46719.805555555555</v>
+        <v>46719</v>
       </c>
       <c r="L32" s="7">
-        <v>42531.805555555555</v>
+        <v>42531</v>
       </c>
       <c r="M32" s="7">
-        <v>40085.388888888891</v>
+        <v>40085</v>
       </c>
       <c r="N32" s="7">
-        <v>37553.083333333328</v>
+        <v>37553</v>
       </c>
       <c r="O32" s="7">
-        <v>35735.916666666672</v>
+        <v>35735</v>
       </c>
       <c r="P32" s="7">
-        <v>33571.083333333336</v>
+        <v>33571</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12371,31 +12358,31 @@
         <v>33</v>
       </c>
       <c r="B36" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C36" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D36" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E36" s="7">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F36" s="7">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G36" s="7">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H36" s="7">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I36" s="7">
-        <v>50661.657142857141</v>
+        <v>50661</v>
       </c>
       <c r="J36" s="7">
-        <v>49898.114285714284</v>
+        <v>49898</v>
       </c>
       <c r="K36" s="7">
         <v>166</v>
@@ -12421,25 +12408,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="6">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C37" s="6">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D37" s="6">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E37" s="6">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F37" s="6">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G37" s="6">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H37" s="6">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I37" s="6">
         <v>730</v>
@@ -12471,25 +12458,25 @@
         <v>35</v>
       </c>
       <c r="B38" s="7">
-        <v>71231.090909090912</v>
+        <v>71231</v>
       </c>
       <c r="C38" s="7">
-        <v>83127.8</v>
+        <v>83127</v>
       </c>
       <c r="D38" s="7">
-        <v>73246.28571428571</v>
+        <v>73246</v>
       </c>
       <c r="E38" s="7">
-        <v>70165.241379310348</v>
+        <v>70165</v>
       </c>
       <c r="F38" s="7">
-        <v>63655.966666666667</v>
+        <v>63655</v>
       </c>
       <c r="G38" s="7">
-        <v>61010.419354838712</v>
+        <v>61010</v>
       </c>
       <c r="H38" s="7">
-        <v>58905.967741935485</v>
+        <v>58905</v>
       </c>
       <c r="I38" s="7">
         <v>5889</v>
@@ -12586,8 +12573,8 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12654,22 +12641,22 @@
         <v>1612</v>
       </c>
       <c r="C2" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D2" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E2" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F2" s="6">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G2" s="6">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H2" s="6">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I2" s="6">
         <v>11893</v>
@@ -12704,19 +12691,19 @@
         <v>1612</v>
       </c>
       <c r="C3" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D3" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E3" s="7">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F3" s="7">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G3" s="7">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H3" s="7">
         <v>808</v>
@@ -12754,22 +12741,22 @@
         <v>1612</v>
       </c>
       <c r="C4" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D4" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E4" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F4" s="6">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G4" s="6">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H4" s="6">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I4" s="6">
         <v>4336</v>
@@ -12804,22 +12791,22 @@
         <v>1612</v>
       </c>
       <c r="C5" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D5" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E5" s="7">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F5" s="7">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G5" s="7">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H5" s="7">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I5" s="7">
         <v>2527</v>
@@ -12848,7 +12835,7 @@
     </row>
     <row r="6" spans="1:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7">
         <v>1612</v>
@@ -12954,22 +12941,22 @@
         <v>1612</v>
       </c>
       <c r="C8" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D8" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E8" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F8" s="6">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G8" s="6">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H8" s="6">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I8" s="6">
         <v>1737</v>
@@ -13154,22 +13141,22 @@
         <v>1612</v>
       </c>
       <c r="C12" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D12" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E12" s="7">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F12" s="7">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G12" s="7">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H12" s="7">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I12" s="7">
         <v>7338</v>
@@ -13304,7 +13291,7 @@
         <v>1612</v>
       </c>
       <c r="C15" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D15" s="6">
         <v>271</v>
@@ -13504,13 +13491,13 @@
         <v>1612</v>
       </c>
       <c r="C19" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D19" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E19" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F19" s="6">
         <v>37</v>
@@ -13522,16 +13509,16 @@
         <v>100</v>
       </c>
       <c r="I19" s="6">
-        <v>7285.25</v>
+        <v>7285</v>
       </c>
       <c r="J19" s="6">
-        <v>7890.916666666667</v>
+        <v>7890</v>
       </c>
       <c r="K19" s="6">
-        <v>7682.8918918918916</v>
+        <v>7682</v>
       </c>
       <c r="L19" s="6">
-        <v>7595.8378378378375</v>
+        <v>7595</v>
       </c>
       <c r="M19" s="6">
         <v>78</v>
@@ -13604,7 +13591,7 @@
         <v>1612</v>
       </c>
       <c r="C21" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D21" s="6">
         <v>2058</v>
@@ -13754,7 +13741,7 @@
         <v>1612</v>
       </c>
       <c r="C24" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D24" s="7">
         <v>368</v>
@@ -13954,7 +13941,7 @@
         <v>1612</v>
       </c>
       <c r="C28" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D28" s="7">
         <v>6924</v>
@@ -14004,22 +13991,22 @@
         <v>1612</v>
       </c>
       <c r="C29" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D29" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E29" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F29" s="6">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G29" s="6">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H29" s="6">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I29" s="6">
         <v>103</v>
@@ -14054,10 +14041,10 @@
         <v>1612</v>
       </c>
       <c r="C30" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D30" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E30" s="7">
         <v>214</v>
@@ -14354,28 +14341,28 @@
         <v>1612</v>
       </c>
       <c r="C36" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D36" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E36" s="7">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F36" s="7">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G36" s="7">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H36" s="7">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I36" s="7">
-        <v>7285.25</v>
+        <v>7285</v>
       </c>
       <c r="J36" s="7">
-        <v>7890.916666666667</v>
+        <v>7890</v>
       </c>
       <c r="K36" s="7">
         <v>305</v>
@@ -14404,22 +14391,22 @@
         <v>1612</v>
       </c>
       <c r="C37" s="6">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D37" s="6">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E37" s="6">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F37" s="6">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G37" s="6">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H37" s="6">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I37" s="6">
         <v>410</v>
@@ -14454,22 +14441,22 @@
         <v>1612</v>
       </c>
       <c r="C38" s="7">
-        <v>7612.9545454545496</v>
+        <v>7612</v>
       </c>
       <c r="D38" s="7">
-        <v>7571.6153846153848</v>
+        <v>7571</v>
       </c>
       <c r="E38" s="7">
-        <v>7799.4814814814818</v>
+        <v>7799</v>
       </c>
       <c r="F38" s="7">
-        <v>8206.6428571428569</v>
+        <v>8206</v>
       </c>
       <c r="G38" s="7">
-        <v>8519.7857142857138</v>
+        <v>8519</v>
       </c>
       <c r="H38" s="7">
-        <v>8557.1724137931033</v>
+        <v>8557</v>
       </c>
       <c r="I38" s="7">
         <v>885</v>
